--- a/biology/Microbiologie/Fusobacterium/Fusobacterium.xlsx
+++ b/biology/Microbiologie/Fusobacterium/Fusobacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fusobacterium est un genre de bactéries filamenteuses anaérobies. Elle est gram- comme les Bacteroides[1]. Les Fusobacterium contribuent à plusieurs maladies humaines, y compris les maladies parodontales, le syndrome de Lemierre ou des ulcères cutanés tropicaux et au développement du cancer colorectal[2],[3],[4]. Bien que plusieurs ressources ont déclaré le Fusobacterium comme un phénomène courant dans l'oropharynx de l'Homme, le consensus actuel est de toujours considérer Fusobacterium comme un agent pathogène[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fusobacterium est un genre de bactéries filamenteuses anaérobies. Elle est gram- comme les Bacteroides. Les Fusobacterium contribuent à plusieurs maladies humaines, y compris les maladies parodontales, le syndrome de Lemierre ou des ulcères cutanés tropicaux et au développement du cancer colorectal. Bien que plusieurs ressources ont déclaré le Fusobacterium comme un phénomène courant dans l'oropharynx de l'Homme, le consensus actuel est de toujours considérer Fusobacterium comme un agent pathogène.
 Les Fusobacteria ont un puissant LPS.
 </t>
         </is>
@@ -514,15 +526,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">F. necrophorum
-Fusobacterium necrophorum est l'espèce de Fusobacterium responsable du syndrome de Lemierre, et semble être responsable de 10 % des maux de gorge aigus[5] et 21 % des maux de gorge récurrents[6],[7], le reste étant causé par des streptocoques du groupe A ou des virus.
-D'autres complications de F. necrophorum sont la méningite, compliquée par une thrombose des veines cérébrales[8], et l'infection des voies urogénitales et des voies gastro-intestinales[9].
+          <t>F. necrophorum</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fusobacterium necrophorum est l'espèce de Fusobacterium responsable du syndrome de Lemierre, et semble être responsable de 10 % des maux de gorge aigus et 21 % des maux de gorge récurrents le reste étant causé par des streptocoques du groupe A ou des virus.
+D'autres complications de F. necrophorum sont la méningite, compliquée par une thrombose des veines cérébrales, et l'infection des voies urogénitales et des voies gastro-intestinales.
 Les infections de F. necrophorum répondent généralement à un traitement à la pénicilline ou le métronidazole ou à la clindamycine. Cette bactérie est également considérée comme la cause du pied muguet, une maladie des chevaux.
-F. necrophorum est également cause de boiterie chez les ovins. L'infection est communément appelé scald, et peut durer plusieurs années sur certaines terres. En raison de sa durée de survie dans ces domaines, il est irréaliste d'essayer de l'enlever. Il infecte le plus souvent les moutons à cause de la faiblesse de leur peau. Cela peut se produire en raison d'une attente prolongée dans des sols humides ou sablonneux, qui se traduit par la dénaturation de la peau entre les tasseaux[10].
-F. nucleatum
-Fusobacterium nucleatum est une bactérie orale, étrangère à la cavité buccale de l'Homme, qui joue un rôle dans la maladie parodontale. Cet organisme est généralement récupéré de différentes infections mixte aux humains et aux animaux. C'est un élément clé de la plaque parodontale en raison de son abondance et sa capacité à s'associer avec d'autres espèces dans la cavité buccale[11].
-F. polymorphum
-Fusobacterium polymorphum est une bactérie qui a été isolée dans la crevasse gingivale de l'Homme, et a été impliquée dans l'immunopathologie des maladies parodontales. Elle a également été isolée chez les cobayes dans des études de recherche[12].
+F. necrophorum est également cause de boiterie chez les ovins. L'infection est communément appelé scald, et peut durer plusieurs années sur certaines terres. En raison de sa durée de survie dans ces domaines, il est irréaliste d'essayer de l'enlever. Il infecte le plus souvent les moutons à cause de la faiblesse de leur peau. Cela peut se produire en raison d'une attente prolongée dans des sols humides ou sablonneux, qui se traduit par la dénaturation de la peau entre les tasseaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fusobacterium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusobacterium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces remarquables</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>F. nucleatum</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fusobacterium nucleatum est une bactérie orale, étrangère à la cavité buccale de l'Homme, qui joue un rôle dans la maladie parodontale. Cet organisme est généralement récupéré de différentes infections mixte aux humains et aux animaux. C'est un élément clé de la plaque parodontale en raison de son abondance et sa capacité à s'associer avec d'autres espèces dans la cavité buccale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fusobacterium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fusobacterium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces remarquables</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>F. polymorphum</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fusobacterium polymorphum est une bactérie qui a été isolée dans la crevasse gingivale de l'Homme, et a été impliquée dans l'immunopathologie des maladies parodontales. Elle a également été isolée chez les cobayes dans des études de recherche.
 </t>
         </is>
       </c>
